--- a/projects/backend/data/users.xlsx
+++ b/projects/backend/data/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t xml:space="preserve">user</t>
   </si>
@@ -32,24 +32,114 @@
     <t xml:space="preserve">blok</t>
   </si>
   <si>
+    <t xml:space="preserve">badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stinuslindgreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twittertinget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radikale Venstre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borsendk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danskemedier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Børsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Altingetdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altinget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netavisen_Pio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netavisen Pio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRNyheder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tv2newsdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tv2nyhederne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EkstraBladet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ekstra Bladet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jyllandsposten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jyllands-Posten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berlingske</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlingske</t>
+  </si>
+  <si>
+    <t xml:space="preserve">politiken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politiken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaulaLarrain1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lighthouselisten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy</t>
+  </si>
+  <si>
     <t xml:space="preserve">jeppesoee</t>
   </si>
   <si>
-    <t xml:space="preserve">twittertinget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denmark</t>
-  </si>
-  <si>
     <t xml:space="preserve">Moderaterne</t>
   </si>
   <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">Lilla</t>
-  </si>
-  <si>
     <t xml:space="preserve">AajaCL</t>
   </si>
   <si>
@@ -59,9 +149,6 @@
     <t xml:space="preserve">GL</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">SjurSkaale</t>
   </si>
   <si>
@@ -104,12 +191,6 @@
     <t xml:space="preserve">uffeelbaek</t>
   </si>
   <si>
-    <t xml:space="preserve">lighthouselisten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private</t>
-  </si>
-  <si>
     <t xml:space="preserve">TorstenGejl</t>
   </si>
   <si>
@@ -143,12 +224,6 @@
     <t xml:space="preserve">christianfbach</t>
   </si>
   <si>
-    <t xml:space="preserve">Radikale Venstre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
     <t xml:space="preserve">SikandaSIDDIQUE</t>
   </si>
   <si>
@@ -674,9 +749,6 @@
     <t xml:space="preserve">olebirkolesen</t>
   </si>
   <si>
-    <t xml:space="preserve">PaulaLarrain1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paulin_Anne</t>
   </si>
   <si>
@@ -771,9 +843,6 @@
   </si>
   <si>
     <t xml:space="preserve">SrenSndergaard3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stinuslindgreen</t>
   </si>
   <si>
     <t xml:space="preserve">svendbrinkmann</t>
@@ -1157,4166 +1226,4610 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
         <v>53</v>
       </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
+      <c r="G20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
         <v>77</v>
       </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>75</v>
-      </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
         <v>88</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s">
         <v>89</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E55" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E64" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E66" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E67" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E68" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="E69" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="F69" t="s">
-        <v>113</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70"/>
-      <c r="F70"/>
+        <v>125</v>
+      </c>
+      <c r="E70" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71"/>
-      <c r="F71"/>
+        <v>125</v>
+      </c>
+      <c r="E71" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" t="s">
+        <v>49</v>
+      </c>
+      <c r="G71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72"/>
-      <c r="F72"/>
+        <v>125</v>
+      </c>
+      <c r="E72" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="F73" t="s">
-        <v>113</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E74" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F74" t="s">
-        <v>120</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E75" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F75" t="s">
-        <v>120</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>31</v>
-      </c>
-      <c r="E76"/>
-      <c r="F76"/>
+        <v>125</v>
+      </c>
+      <c r="E76" t="s">
+        <v>126</v>
+      </c>
+      <c r="F76" t="s">
+        <v>49</v>
+      </c>
+      <c r="G76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E77" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F77" t="s">
-        <v>120</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="F78" t="s">
-        <v>120</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
         <v>125</v>
       </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" t="s">
-        <v>118</v>
-      </c>
       <c r="E79" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F79" t="s">
-        <v>113</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>125</v>
+      </c>
+      <c r="E80" t="s">
         <v>126</v>
       </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" t="s">
-        <v>118</v>
-      </c>
-      <c r="E80" t="s">
-        <v>80</v>
-      </c>
       <c r="F80" t="s">
-        <v>120</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="E81" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F81" t="s">
-        <v>120</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>118</v>
-      </c>
-      <c r="E82" t="s">
-        <v>101</v>
-      </c>
-      <c r="F82" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>118</v>
-      </c>
-      <c r="E83" t="s">
-        <v>101</v>
-      </c>
-      <c r="F83" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
+      <c r="G84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E85" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="F85" t="s">
-        <v>120</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E86" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F86" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
-      </c>
-      <c r="E87"/>
-      <c r="F87"/>
+        <v>143</v>
+      </c>
+      <c r="E87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F87" t="s">
+        <v>145</v>
+      </c>
+      <c r="G87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>118</v>
-      </c>
-      <c r="E88" t="s">
-        <v>101</v>
-      </c>
-      <c r="F88" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E89" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="F89" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
-      </c>
-      <c r="E90"/>
-      <c r="F90"/>
+        <v>143</v>
+      </c>
+      <c r="E90" t="s">
+        <v>105</v>
+      </c>
+      <c r="F90" t="s">
+        <v>145</v>
+      </c>
+      <c r="G90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E91" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="F91" t="s">
-        <v>120</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
-      </c>
-      <c r="E92"/>
-      <c r="F92"/>
+        <v>143</v>
+      </c>
+      <c r="E92" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" t="s">
+        <v>145</v>
+      </c>
+      <c r="G92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E93" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
-      </c>
-      <c r="E94"/>
-      <c r="F94"/>
+        <v>143</v>
+      </c>
+      <c r="E94" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" t="s">
+        <v>145</v>
+      </c>
+      <c r="G94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
-      </c>
-      <c r="E95"/>
-      <c r="F95"/>
+        <v>143</v>
+      </c>
+      <c r="E95" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" t="s">
+        <v>145</v>
+      </c>
+      <c r="G95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E96"/>
       <c r="F96"/>
+      <c r="G96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>31</v>
-      </c>
-      <c r="E97"/>
-      <c r="F97"/>
+        <v>143</v>
+      </c>
+      <c r="E97" t="s">
+        <v>126</v>
+      </c>
+      <c r="F97" t="s">
+        <v>145</v>
+      </c>
+      <c r="G97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E98" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F98" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E99"/>
       <c r="F99"/>
+      <c r="G99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>31</v>
-      </c>
-      <c r="E100"/>
-      <c r="F100"/>
+        <v>143</v>
+      </c>
+      <c r="E100" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" t="s">
+        <v>145</v>
+      </c>
+      <c r="G100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E101" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F101" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E102"/>
       <c r="F102"/>
+      <c r="G102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E103" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F103" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E104"/>
       <c r="F104"/>
+      <c r="G104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B105" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
-      </c>
-      <c r="E105"/>
-      <c r="F105"/>
+        <v>143</v>
+      </c>
+      <c r="E105" t="s">
+        <v>121</v>
+      </c>
+      <c r="F105" t="s">
+        <v>138</v>
+      </c>
+      <c r="G105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>118</v>
-      </c>
-      <c r="E106" t="s">
-        <v>64</v>
-      </c>
-      <c r="F106" t="s">
-        <v>113</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>118</v>
-      </c>
-      <c r="E107" t="s">
-        <v>96</v>
-      </c>
-      <c r="F107" t="s">
-        <v>113</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E108"/>
       <c r="F108"/>
+      <c r="G108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E109"/>
       <c r="F109"/>
+      <c r="G109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E110" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F110" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>118</v>
-      </c>
-      <c r="E111" t="s">
-        <v>101</v>
-      </c>
-      <c r="F111" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>118</v>
-      </c>
-      <c r="E112" t="s">
-        <v>101</v>
-      </c>
-      <c r="F112" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E113" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="F113" t="s">
-        <v>113</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>118</v>
-      </c>
-      <c r="E114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F114" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E115" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="F115" t="s">
-        <v>113</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>118</v>
-      </c>
-      <c r="E116" t="s">
-        <v>96</v>
-      </c>
-      <c r="F116" t="s">
-        <v>113</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E117"/>
       <c r="F117"/>
+      <c r="G117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E118" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F118" t="s">
-        <v>120</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E119" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F119" t="s">
-        <v>120</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B120" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E120"/>
       <c r="F120"/>
+      <c r="G120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>118</v>
-      </c>
-      <c r="E121" t="s">
-        <v>101</v>
-      </c>
-      <c r="F121" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>31</v>
-      </c>
-      <c r="E122"/>
-      <c r="F122"/>
+        <v>143</v>
+      </c>
+      <c r="E122" t="s">
+        <v>126</v>
+      </c>
+      <c r="F122" t="s">
+        <v>145</v>
+      </c>
+      <c r="G122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B123" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>31</v>
-      </c>
-      <c r="E123"/>
-      <c r="F123"/>
+        <v>143</v>
+      </c>
+      <c r="E123" t="s">
+        <v>126</v>
+      </c>
+      <c r="F123" t="s">
+        <v>145</v>
+      </c>
+      <c r="G123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>31</v>
-      </c>
-      <c r="E124"/>
-      <c r="F124"/>
+        <v>143</v>
+      </c>
+      <c r="E124" t="s">
+        <v>126</v>
+      </c>
+      <c r="F124" t="s">
+        <v>145</v>
+      </c>
+      <c r="G124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B125" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>31</v>
-      </c>
-      <c r="E125"/>
-      <c r="F125"/>
+        <v>143</v>
+      </c>
+      <c r="E125" t="s">
+        <v>121</v>
+      </c>
+      <c r="F125" t="s">
+        <v>138</v>
+      </c>
+      <c r="G125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E126" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="F126" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="E127" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="F127" t="s">
-        <v>113</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E128" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F128" t="s">
-        <v>120</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E129"/>
       <c r="F129"/>
+      <c r="G129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>175</v>
-      </c>
-      <c r="E130"/>
-      <c r="F130"/>
+        <v>143</v>
+      </c>
+      <c r="E130" t="s">
+        <v>126</v>
+      </c>
+      <c r="F130" t="s">
+        <v>145</v>
+      </c>
+      <c r="G130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E131" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F131" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>118</v>
-      </c>
-      <c r="E132" t="s">
-        <v>44</v>
-      </c>
-      <c r="F132" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>31</v>
-      </c>
-      <c r="E133"/>
-      <c r="F133"/>
+        <v>143</v>
+      </c>
+      <c r="E133" t="s">
+        <v>126</v>
+      </c>
+      <c r="F133" t="s">
+        <v>145</v>
+      </c>
+      <c r="G133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>118</v>
-      </c>
-      <c r="E134" t="s">
-        <v>80</v>
-      </c>
-      <c r="F134" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>118</v>
-      </c>
-      <c r="E135" t="s">
-        <v>80</v>
-      </c>
-      <c r="F135" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B136" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E136"/>
       <c r="F136"/>
+      <c r="G136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B137" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E137"/>
       <c r="F137"/>
+      <c r="G137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E138" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F138" t="s">
-        <v>120</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G138"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B139" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>31</v>
-      </c>
-      <c r="E139"/>
-      <c r="F139"/>
+        <v>74</v>
+      </c>
+      <c r="E139" t="s">
+        <v>75</v>
+      </c>
+      <c r="F139" t="s">
+        <v>138</v>
+      </c>
+      <c r="G139"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F140" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G140"/>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>118</v>
-      </c>
-      <c r="E141" t="s">
-        <v>27</v>
-      </c>
-      <c r="F141" t="s">
-        <v>113</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="D142" t="s">
-        <v>118</v>
-      </c>
-      <c r="E142" t="s">
-        <v>101</v>
-      </c>
-      <c r="F142" t="s">
-        <v>120</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E143" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="F143" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G143"/>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>118</v>
-      </c>
-      <c r="E145" t="s">
-        <v>44</v>
-      </c>
-      <c r="F145" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E146" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F146" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B147" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>31</v>
-      </c>
-      <c r="E147"/>
-      <c r="F147"/>
+        <v>143</v>
+      </c>
+      <c r="E147" t="s">
+        <v>105</v>
+      </c>
+      <c r="F147" t="s">
+        <v>145</v>
+      </c>
+      <c r="G147"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>118</v>
-      </c>
-      <c r="E148" t="s">
-        <v>96</v>
-      </c>
-      <c r="F148" t="s">
-        <v>113</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B149" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E149"/>
       <c r="F149"/>
+      <c r="G149"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E150" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="F150" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>118</v>
-      </c>
-      <c r="E151" t="s">
-        <v>101</v>
-      </c>
-      <c r="F151" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B152" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>31</v>
-      </c>
-      <c r="E152"/>
-      <c r="F152"/>
+        <v>143</v>
+      </c>
+      <c r="E152" t="s">
+        <v>121</v>
+      </c>
+      <c r="F152" t="s">
+        <v>138</v>
+      </c>
+      <c r="G152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E153" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="F153" t="s">
-        <v>113</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G153"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B154" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>31</v>
-      </c>
-      <c r="E154"/>
-      <c r="F154"/>
+        <v>143</v>
+      </c>
+      <c r="E154" t="s">
+        <v>126</v>
+      </c>
+      <c r="F154" t="s">
+        <v>145</v>
+      </c>
+      <c r="G154"/>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B155" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>31</v>
-      </c>
-      <c r="E155"/>
-      <c r="F155"/>
+        <v>143</v>
+      </c>
+      <c r="E155" t="s">
+        <v>105</v>
+      </c>
+      <c r="F155" t="s">
+        <v>145</v>
+      </c>
+      <c r="G155"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E156" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F156" t="s">
-        <v>120</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G156"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E157" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G157"/>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B158" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>31</v>
-      </c>
-      <c r="E158"/>
-      <c r="F158"/>
+        <v>143</v>
+      </c>
+      <c r="E158" t="s">
+        <v>121</v>
+      </c>
+      <c r="F158" t="s">
+        <v>138</v>
+      </c>
+      <c r="G158"/>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>49</v>
-      </c>
-      <c r="E159" t="s">
-        <v>50</v>
-      </c>
-      <c r="F159" t="s">
-        <v>113</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E160" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F160" t="s">
-        <v>120</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>118</v>
-      </c>
-      <c r="E161" t="s">
-        <v>80</v>
-      </c>
-      <c r="F161" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E162" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F162" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E163" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F163" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>118</v>
-      </c>
-      <c r="E164" t="s">
-        <v>96</v>
-      </c>
-      <c r="F164" t="s">
-        <v>113</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B165" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>31</v>
-      </c>
-      <c r="E165"/>
-      <c r="F165"/>
+        <v>143</v>
+      </c>
+      <c r="E165" t="s">
+        <v>121</v>
+      </c>
+      <c r="F165" t="s">
+        <v>138</v>
+      </c>
+      <c r="G165"/>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>118</v>
-      </c>
-      <c r="E166" t="s">
-        <v>101</v>
-      </c>
-      <c r="F166" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B167" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E167"/>
       <c r="F167"/>
+      <c r="G167"/>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E168" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E169" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="F169" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B170" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E170"/>
       <c r="F170"/>
+      <c r="G170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="E171" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F171" t="s">
-        <v>113</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B172" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>31</v>
-      </c>
-      <c r="E172"/>
-      <c r="F172"/>
+        <v>143</v>
+      </c>
+      <c r="E172" t="s">
+        <v>126</v>
+      </c>
+      <c r="F172" t="s">
+        <v>145</v>
+      </c>
+      <c r="G172"/>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B173" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>31</v>
-      </c>
-      <c r="E173"/>
-      <c r="F173"/>
+        <v>143</v>
+      </c>
+      <c r="E173" t="s">
+        <v>105</v>
+      </c>
+      <c r="F173" t="s">
+        <v>145</v>
+      </c>
+      <c r="G173"/>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E174" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F174" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G174"/>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E175" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="F175" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G175"/>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B176" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>31</v>
-      </c>
-      <c r="E176"/>
-      <c r="F176"/>
+        <v>143</v>
+      </c>
+      <c r="E176" t="s">
+        <v>121</v>
+      </c>
+      <c r="F176" t="s">
+        <v>138</v>
+      </c>
+      <c r="G176"/>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>118</v>
-      </c>
-      <c r="E177" t="s">
-        <v>101</v>
-      </c>
-      <c r="F177" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E178" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="F178" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G178"/>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>49</v>
-      </c>
-      <c r="E179" t="s">
-        <v>50</v>
-      </c>
-      <c r="F179" t="s">
-        <v>113</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179"/>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E180" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="F180" t="s">
-        <v>113</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G180"/>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B181" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>31</v>
-      </c>
-      <c r="E181"/>
-      <c r="F181"/>
+        <v>143</v>
+      </c>
+      <c r="E181" t="s">
+        <v>101</v>
+      </c>
+      <c r="F181" t="s">
+        <v>138</v>
+      </c>
+      <c r="G181"/>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>118</v>
-      </c>
-      <c r="E182" t="s">
-        <v>27</v>
-      </c>
-      <c r="F182" t="s">
-        <v>113</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E182"/>
+      <c r="F182"/>
+      <c r="G182"/>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E183" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F183" t="s">
-        <v>113</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G183"/>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>118</v>
-      </c>
-      <c r="E184" t="s">
-        <v>101</v>
-      </c>
-      <c r="F184" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184"/>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>118</v>
-      </c>
-      <c r="E185" t="s">
-        <v>76</v>
-      </c>
-      <c r="F185" t="s">
-        <v>113</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E185"/>
+      <c r="F185"/>
+      <c r="G185"/>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E186" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="F186" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G186"/>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="B187" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>31</v>
-      </c>
-      <c r="E187"/>
-      <c r="F187"/>
+        <v>143</v>
+      </c>
+      <c r="E187" t="s">
+        <v>78</v>
+      </c>
+      <c r="F187" t="s">
+        <v>138</v>
+      </c>
+      <c r="G187"/>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>31</v>
-      </c>
-      <c r="E188"/>
-      <c r="F188"/>
+        <v>143</v>
+      </c>
+      <c r="E188" t="s">
+        <v>126</v>
+      </c>
+      <c r="F188" t="s">
+        <v>145</v>
+      </c>
+      <c r="G188"/>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E189" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F189" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G189"/>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="E190" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F190" t="s">
-        <v>120</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G190"/>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="E191" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F191" t="s">
-        <v>113</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G191"/>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>118</v>
-      </c>
-      <c r="E192" t="s">
-        <v>101</v>
-      </c>
-      <c r="F192" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E192"/>
+      <c r="F192"/>
+      <c r="G192"/>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E193" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="F193" t="s">
-        <v>120</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E194" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="F194" t="s">
-        <v>120</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G194"/>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E195" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F195" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G195"/>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E196" t="s">
         <v>101</v>
       </c>
       <c r="F196" t="s">
-        <v>120</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G196"/>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E197" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="F197" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G197"/>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B198" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E198"/>
       <c r="F198"/>
+      <c r="G198"/>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>118</v>
-      </c>
-      <c r="E199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F199" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E200" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="F200" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G200"/>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E201" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F201" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G201"/>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B202" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>31</v>
-      </c>
-      <c r="E202"/>
-      <c r="F202"/>
+        <v>74</v>
+      </c>
+      <c r="E202" t="s">
+        <v>75</v>
+      </c>
+      <c r="F202" t="s">
+        <v>138</v>
+      </c>
+      <c r="G202"/>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="B203" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>31</v>
-      </c>
-      <c r="E203"/>
-      <c r="F203"/>
+        <v>143</v>
+      </c>
+      <c r="E203" t="s">
+        <v>126</v>
+      </c>
+      <c r="F203" t="s">
+        <v>145</v>
+      </c>
+      <c r="G203"/>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E204" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="F204" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G204"/>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E205" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F205" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G205"/>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E206" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="F206" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G206"/>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="E207" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="F207" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G207"/>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E208" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G208"/>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B209" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E209"/>
       <c r="F209"/>
+      <c r="G209"/>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B210" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>31</v>
-      </c>
-      <c r="E210"/>
-      <c r="F210"/>
+        <v>143</v>
+      </c>
+      <c r="E210" t="s">
+        <v>126</v>
+      </c>
+      <c r="F210" t="s">
+        <v>145</v>
+      </c>
+      <c r="G210"/>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B211" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>31</v>
-      </c>
-      <c r="E211"/>
-      <c r="F211"/>
+        <v>143</v>
+      </c>
+      <c r="E211" t="s">
+        <v>105</v>
+      </c>
+      <c r="F211" t="s">
+        <v>145</v>
+      </c>
+      <c r="G211"/>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E212" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F212" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G212"/>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B213" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E213"/>
       <c r="F213"/>
+      <c r="G213"/>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B214" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E214"/>
       <c r="F214"/>
+      <c r="G214"/>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B215" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>31</v>
-      </c>
-      <c r="E215"/>
-      <c r="F215"/>
+        <v>143</v>
+      </c>
+      <c r="E215" t="s">
+        <v>11</v>
+      </c>
+      <c r="F215" t="s">
+        <v>145</v>
+      </c>
+      <c r="G215"/>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E216" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="F216" t="s">
-        <v>113</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G216"/>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E217" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F217" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G217"/>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="E218" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F218" t="s">
-        <v>113</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G218"/>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F219" t="s">
-        <v>120</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G219"/>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>118</v>
-      </c>
-      <c r="E220" t="s">
-        <v>44</v>
-      </c>
-      <c r="F220" t="s">
-        <v>120</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E220"/>
+      <c r="F220"/>
+      <c r="G220"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>278</v>
+      </c>
+      <c r="B221" t="s">
+        <v>36</v>
+      </c>
+      <c r="C221" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" t="s">
+        <v>37</v>
+      </c>
+      <c r="E221"/>
+      <c r="F221"/>
+      <c r="G221"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>279</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" t="s">
+        <v>143</v>
+      </c>
+      <c r="E222" t="s">
+        <v>121</v>
+      </c>
+      <c r="F222" t="s">
+        <v>138</v>
+      </c>
+      <c r="G222"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>280</v>
+      </c>
+      <c r="B223" t="s">
+        <v>36</v>
+      </c>
+      <c r="C223" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" t="s">
+        <v>37</v>
+      </c>
+      <c r="E223"/>
+      <c r="F223"/>
+      <c r="G223"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>281</v>
+      </c>
+      <c r="B224" t="s">
+        <v>36</v>
+      </c>
+      <c r="C224" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" t="s">
+        <v>37</v>
+      </c>
+      <c r="E224"/>
+      <c r="F224"/>
+      <c r="G224"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>282</v>
+      </c>
+      <c r="B225" t="s">
+        <v>36</v>
+      </c>
+      <c r="C225" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" t="s">
+        <v>37</v>
+      </c>
+      <c r="E225"/>
+      <c r="F225"/>
+      <c r="G225"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>283</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" t="s">
+        <v>143</v>
+      </c>
+      <c r="E226" t="s">
+        <v>121</v>
+      </c>
+      <c r="F226" t="s">
+        <v>138</v>
+      </c>
+      <c r="G226"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>284</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" t="s">
+        <v>143</v>
+      </c>
+      <c r="E227" t="s">
+        <v>126</v>
+      </c>
+      <c r="F227" t="s">
+        <v>145</v>
+      </c>
+      <c r="G227"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>285</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" t="s">
+        <v>143</v>
+      </c>
+      <c r="E228" t="s">
+        <v>121</v>
+      </c>
+      <c r="F228" t="s">
+        <v>138</v>
+      </c>
+      <c r="G228"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>286</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" t="s">
+        <v>143</v>
+      </c>
+      <c r="E229" t="s">
+        <v>68</v>
+      </c>
+      <c r="F229" t="s">
+        <v>145</v>
+      </c>
+      <c r="G229"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>287</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" t="s">
+        <v>143</v>
+      </c>
+      <c r="E230" t="s">
+        <v>11</v>
+      </c>
+      <c r="F230" t="s">
+        <v>145</v>
+      </c>
+      <c r="G230"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
